--- a/tracker.xlsx
+++ b/tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/blake/Desktop/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B2420D-6C2F-AF45-89F5-A5B0A059D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC825B0F-7526-DC4E-A957-F182B1407017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16980" xr2:uid="{FD9F7C01-FA2F-D144-899D-0BAC36A5042F}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="28040" windowHeight="16960" xr2:uid="{FD9F7C01-FA2F-D144-899D-0BAC36A5042F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,36 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Reverse Words In String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-if-two-strings-are-close/description/?envType=study-plan-v2&amp;envId=leetcode-75</t>
+  </si>
+  <si>
+    <t>hashmap</t>
   </si>
 </sst>
 </file>
@@ -107,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -115,8 +145,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -453,58 +486,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{050D11EB-35AE-6549-89F3-E97A8B9D4A3C}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="43.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>45973</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45973</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45973</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1657</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45973</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{C69AC3E4-D03A-7F45-9999-857B0900AFB0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{C69AC3E4-D03A-7F45-9999-857B0900AFB0}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{B0417453-CB53-7641-A27F-5DB3A988F3DC}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{77347A1A-4DF5-3D4C-A30B-7C20E79D6DDB}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{FF31BBC3-1649-D845-9667-877FC3F10C24}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
